--- a/Docs/Missing Games (16 June 2025).xlsx
+++ b/Docs/Missing Games (16 June 2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\My Drive\RA Stuff\Unofficial-RA-DATs\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007C289-392A-42F8-9F8A-797D1A28F59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FDE57-D45C-41D6-A692-43E445003E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Sega Genesis" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="576">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -1751,6 +1751,18 @@
   </si>
   <si>
     <t>8aafff8f93212b121203b41387da18dd</t>
+  </si>
+  <si>
+    <t>Obscure (SLUS-20777) [A87D53CA]</t>
+  </si>
+  <si>
+    <t>7645075cf5729f059d8202da46f29523</t>
+  </si>
+  <si>
+    <t>Mario &amp;amp; Luigi Sokoban (2008-08-11) (letiseb62) (Homebrew)</t>
+  </si>
+  <si>
+    <t>0c18b029fd8f77153230212217b643e1</t>
   </si>
 </sst>
 </file>
@@ -2232,9 +2244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C369"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2333,10 +2345,16 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -6972,11 +6990,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D854EAE-5596-457F-95A9-16335E2351EE}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,32 +7050,32 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="4" t="s">
         <v>526</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>551</v>
@@ -7068,18 +7086,18 @@
         <v>526</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>527</v>
+      <c r="A9" s="30" t="s">
+        <v>526</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>551</v>
@@ -7087,10 +7105,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>551</v>
@@ -7098,10 +7116,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>551</v>
@@ -7112,7 +7130,7 @@
         <v>529</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>551</v>
@@ -7123,7 +7141,7 @@
         <v>529</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>551</v>
@@ -7131,10 +7149,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>551</v>
@@ -7142,10 +7160,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>551</v>
@@ -7153,10 +7171,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>551</v>
@@ -7164,10 +7182,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>551</v>
@@ -7175,21 +7193,21 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>535</v>
+      <c r="A19" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>551</v>
@@ -7197,10 +7215,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>551</v>
@@ -7208,10 +7226,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>551</v>
@@ -7219,10 +7237,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>551</v>
@@ -7230,10 +7248,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>551</v>
@@ -7241,10 +7259,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>551</v>
@@ -7252,10 +7270,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>551</v>
@@ -7263,10 +7281,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>551</v>
@@ -7274,10 +7292,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>551</v>
@@ -7285,10 +7303,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>551</v>
@@ -7296,12 +7314,23 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>551</v>
       </c>
     </row>
